--- a/テスト項目/バーコード判別.xlsx
+++ b/テスト項目/バーコード判別.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>テスト</t>
     <phoneticPr fontId="1"/>
@@ -107,6 +107,44 @@
     </rPh>
     <rPh sb="22" eb="24">
       <t>シキベツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カメラから40cm離れて撮ったバーコード画像の検知率が25%</t>
+    <rPh sb="9" eb="10">
+      <t>ハナ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ケンチ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>リツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カメラから15cm離れて撮ったバーコード画像の検知率が80%</t>
+    <rPh sb="9" eb="10">
+      <t>ハナ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ケンチ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>リツ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -166,9 +204,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -449,7 +488,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F5"/>
+  <dimension ref="A2:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
@@ -516,6 +555,30 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/テスト項目/バーコード判別.xlsx
+++ b/テスト項目/バーコード判別.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>テスト</t>
     <phoneticPr fontId="1"/>
@@ -145,6 +145,33 @@
     </rPh>
     <rPh sb="25" eb="26">
       <t>リツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>段原</t>
+    <rPh sb="0" eb="2">
+      <t>ダンバラ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -204,10 +231,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -491,12 +519,13 @@
   <dimension ref="A2:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="52.625" customWidth="1"/>
+    <col min="5" max="5" width="9.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
@@ -527,9 +556,15 @@
         <v>6</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="3">
+        <v>43823</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
@@ -539,9 +574,15 @@
         <v>7</v>
       </c>
       <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="3">
+        <v>43823</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
@@ -551,9 +592,15 @@
         <v>8</v>
       </c>
       <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="3">
+        <v>43823</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
@@ -563,9 +610,15 @@
         <v>10</v>
       </c>
       <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="3">
+        <v>43823</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
@@ -575,9 +628,15 @@
         <v>9</v>
       </c>
       <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="3">
+        <v>43823</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
